--- a/public/ExcelTemplates/PatientUpload.xlsx
+++ b/public/ExcelTemplates/PatientUpload.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Options Store\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8522B4-3DD8-4DD0-9B35-E56FAF921689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5656EE-041C-4F36-B5A0-129196082035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="1" r:id="rId1"/>
+    <sheet name="Patients" sheetId="1" r:id="rId1"/>
+    <sheet name="Gender" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +70,42 @@
   </si>
   <si>
     <t xml:space="preserve">تاريخ الميلاد </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>stands for</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>fmale</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>personal</t>
   </si>
 </sst>
 </file>
@@ -572,8 +610,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -619,7 +661,198 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -630,6 +863,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDD0674A-29E4-490E-B803-82F1A47D20CC}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H1048576" xr:uid="{BDD0674A-29E4-490E-B803-82F1A47D20CC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EC049D96-EC63-4010-B020-8EB101801686}" name="name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2798F34E-B9D2-4874-8F1D-A29F22B12613}" name="gender (M|F)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{273FEFD4-4E29-4410-A1B8-97ADC1EC507C}" name="phone" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C053C846-A8B8-4935-B59F-52EB569DB1EC}" name="type (P|I)" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{0DDAE52B-E22E-4FDD-A92A-353BB1FC5A03}" name="date_of_birth " dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{325326C8-BD09-49A1-B89E-7C4DD6FF16C3}" name="insurance_number" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{2504BAC5-0BC4-43DB-9A87-19E66F70FB93}" name="insurance_company" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{666E6F32-196F-474F-9C07-61985D08329A}" name="additionalInformation" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4A7FCB6-BEA6-4B45-A0D5-4B0C2CB7EAF2}" name="Table3" displayName="Table3" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{A4A7FCB6-BEA6-4B45-A0D5-4B0C2CB7EAF2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ABCA117D-C6FA-409B-9767-69C9ACB0DC3E}" name="id"/>
+    <tableColumn id="2" xr3:uid="{48DA142F-5B28-4200-970E-DBF0AB5E9731}" name="Gender"/>
+    <tableColumn id="3" xr3:uid="{EFA10A1E-22A7-4C37-B6B8-691C9A7CB00B}" name="stands for"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2862B065-C46F-48F4-9A3F-0A5B36A514CB}" name="Table4" displayName="Table4" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{2862B065-C46F-48F4-9A3F-0A5B36A514CB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{67B10C92-11C8-4834-B490-6C086AD9169C}" name="id"/>
+    <tableColumn id="2" xr3:uid="{C2616766-B3B5-4B84-9B60-445BFFD0D97B}" name="type"/>
+    <tableColumn id="3" xr3:uid="{69AAEC38-C1C2-449F-84CA-8255DDFDE4F1}" name="stands for"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,20 +1205,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
@@ -1007,5 +1281,134 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{57B7DDB8-F729-4C98-9989-92EF1A19DF64}">
+          <x14:formula1>
+            <xm:f>Gender!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6907864F-0E16-4CA9-9BCD-9ED14D225610}">
+          <x14:formula1>
+            <xm:f>Type!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D933340-56E1-45CC-A0E5-3C14A1F97F41}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A6A730-B800-40E7-9EB7-24E8286CFB76}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>